--- a/tests/test_data/notice_validator/test_repository/test_package/transformation/conceptual_mappings.xlsx
+++ b/tests/test_data/notice_validator/test_repository/test_package/transformation/conceptual_mappings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -489,7 +489,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="807">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -590,10 +590,10 @@
     <t xml:space="preserve">Standard Form Field Name (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">eForm BT-ID (O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eForm BT Name (O)</t>
+    <t xml:space="preserve">eForm BT-ID (Provisional/Indicative) (O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eForm BT Name (Provisional/Indicative) (O)</t>
   </si>
   <si>
     <t xml:space="preserve">Base XPath (for anchoring) (M)</t>
@@ -5800,6 +5800,12 @@
   </si>
   <si>
     <t xml:space="preserve">Conceptual mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eForm BT-ID (O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eForm BT Name (O)</t>
   </si>
   <si>
     <t xml:space="preserve">    Organisation City</t>
@@ -6671,11 +6677,11 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="12:12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="D7:D8 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.63"/>
@@ -6794,10 +6800,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="12:12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D7:D8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -6805,16 +6811,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="86" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -6839,10 +6845,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="12:12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D7:D8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -6850,16 +6856,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="86" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -6884,10 +6890,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="12:12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D7:D8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -6895,16 +6901,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="86" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -6929,10 +6935,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="12:12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D7:D8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -6940,16 +6946,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="86" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -6974,10 +6980,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="12:12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D7:D8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -6985,16 +6991,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="86" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -7019,10 +7025,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="12:12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D7:D8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41"/>
@@ -7048,10 +7054,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="12:12 B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="D7:D8 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.38"/>
   </cols>
@@ -7120,13 +7126,13 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H27" activeCellId="1" sqref="12:12 H27"/>
+      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.26"/>
@@ -7172,7 +7178,7 @@
       <c r="Y1" s="14"/>
       <c r="Z1" s="14"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
@@ -16558,10 +16564,10 @@
   <dimension ref="A2:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="12:12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D7:D8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.75"/>
@@ -16685,10 +16691,10 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="12:12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D7:D8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -16746,10 +16752,10 @@
         <v>32</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>33</v>
+        <v>777</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>34</v>
+        <v>778</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>35</v>
@@ -16799,25 +16805,25 @@
         <v>70</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E5" s="84" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F5" s="84" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G5" s="84" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H5" s="85" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="I5" s="83" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="J5" s="84" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16847,10 +16853,10 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="12:12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D7:D8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.12"/>
@@ -16858,72 +16864,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="86" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -16948,10 +16954,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="12:12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D7:D8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -16959,32 +16965,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="86" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -17009,10 +17015,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="12:12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D7:D8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -17020,16 +17026,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="86" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -17054,10 +17060,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="12:12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D7:D8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -17065,16 +17071,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="86" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B1" s="86"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
